--- a/Solidworks/Drawings/OpSheet (Ivan).xlsx
+++ b/Solidworks/Drawings/OpSheet (Ivan).xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ivan\Desktop\Capstone\Solidworks\Drawings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E59409A7-6A3E-4312-AC27-15AA6058948B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11270" windowHeight="4170" xr2:uid="{19255287-C27E-4F71-82E3-7A54D86417C6}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11265" windowHeight="4170"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
   <si>
     <t>Manufacturing Process Sheet</t>
   </si>
@@ -115,12 +114,30 @@
   </si>
   <si>
     <t>Use the large electronics mounting hole pattern to secure the stack to part EP1.</t>
+  </si>
+  <si>
+    <t>Roller Brackets</t>
+  </si>
+  <si>
+    <t>CNC Plasma Cutter</t>
+  </si>
+  <si>
+    <t>Using a CNC plasma cutter, cut the shape of the roller brackets out of 3/8 in ANSI 1008 steel plate.</t>
+  </si>
+  <si>
+    <t>Ream the holes to size as shown in the RB1 drawing.</t>
+  </si>
+  <si>
+    <t>Grinder</t>
+  </si>
+  <si>
+    <t>using a grinder, smooth any rough sides left by the plasma cutter.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -153,13 +170,13 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -477,286 +494,327 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC602E30-84C4-4573-9E51-6B1E1DE36C58}">
-  <dimension ref="A1:C30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.81640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="36.26953125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.36328125" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="36.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A4" s="3">
+    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>1</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" s="3">
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <v>2</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="3">
+    <row r="6" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <v>3</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="3">
+    <row r="7" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>4</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A11" s="3">
+    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
         <v>1</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A12" s="3">
+    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
         <v>2</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="3">
+    <row r="13" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
         <v>3</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="3" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C16" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A17" s="3">
+    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
         <v>1</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C17" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A18" s="3">
+    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
         <v>2</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C18" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A19" s="3">
+    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
         <v>3</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C19" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
     </row>
-    <row r="22" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A22" s="3">
+    <row r="22" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
         <v>1</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C22" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="58" x14ac:dyDescent="0.35">
-      <c r="A23" s="3">
+    <row r="23" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
         <v>2</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C23" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="3">
+    <row r="24" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
         <v>3</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C24" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="58" x14ac:dyDescent="0.35">
-      <c r="A25" s="3">
+    <row r="25" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
         <v>4</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="3">
+    <row r="26" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
         <v>5</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="3">
+    <row r="27" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
         <v>6</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A28" s="3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
         <v>7</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A29" s="3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
         <v>8</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A30" s="3">
+    <row r="30" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
         <v>9</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C30" t="s">
         <v>22</v>
       </c>
     </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+    </row>
+    <row r="33" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>1</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>2</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>3</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="A15:C15"/>
     <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A32:C32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
